--- a/Excel/Buff/BuffBaseActionConfig.xlsx
+++ b/Excel/Buff/BuffBaseActionConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\Buff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>#</t>
   </si>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>基础Action列表  只记录序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D6"/>
+  <dimension ref="C2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -462,7 +474,30 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
